--- a/30 s/dualisation_sol.xlsx
+++ b/30 s/dualisation_sol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>nom_fichier</t>
   </si>
@@ -45,100 +45,118 @@
     <t>gap</t>
   </si>
   <si>
+    <t>                              </t>
+  </si>
+  <si>
+    <t>                                                                                                                                                                                                        </t>
+  </si>
+  <si>
     <t>10_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>[4, 6, 7, 8][5, 9][1, 2, 3,...</t>
+    <t>136.99527629589417</t>
+  </si>
+  <si>
+    <t>[4, 6, 7, 8][5, 9][1, 2, 3, 10]</t>
   </si>
   <si>
     <t>10_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>[1, 4, 8][2, 3][7][10][6, 9...</t>
+    <t>55.11939124322688</t>
+  </si>
+  <si>
+    <t>[6, 9][2, 3][5][10][1, 4, 8][7]</t>
   </si>
   <si>
     <t>10_ulysses_9.tsp</t>
   </si>
   <si>
-    <t>[1][2, 3][6][4][5][9][7][8]...</t>
+    <t>33.29189782877749</t>
+  </si>
+  <si>
+    <t>[2, 3][5][9][4][1][6][10][8][7]</t>
   </si>
   <si>
     <t>14_burma_3.tsp</t>
   </si>
   <si>
-    <t>[1, 8, 9, 10, 11][3, 4, 5, ...</t>
+    <t>93.3899872599682</t>
+  </si>
+  <si>
+    <t>[1, 8, 9, 10, 11][2, 12, 13, 14][3, 4, 5, 6, 7]</t>
   </si>
   <si>
     <t>14_burma_6.tsp</t>
   </si>
   <si>
-    <t>[1, 8, 11][6, 12, 14][3, 4,...</t>
+    <t>42.74062354260174</t>
+  </si>
+  <si>
+    <t>[2, 13][3, 4, 5][9, 10][7][1, 8, 11][6, 12, 14]</t>
   </si>
   <si>
     <t>14_burma_9.tsp</t>
   </si>
   <si>
-    <t>[5][10][3, 4][13, 14][7][6,...</t>
+    <t>20.762438566071065</t>
+  </si>
+  <si>
+    <t>[3, 4][2][6, 12][1, 8][9, 11][10][5][13, 14][7]</t>
   </si>
   <si>
     <t>22_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>[1, 2, 3, 4, 8, 16, 17, 18]...</t>
+    <t>358.6368286225183</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 8, 16, 17, 18][7, 10, 12, 13, 14, 19, 20, 22][5, 6, 9, 11, 15, 21]</t>
   </si>
   <si>
     <t>22_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>[7, 11][10, 12, 20, 21][2, ...</t>
-  </si>
-  <si>
-    <t>100_kroA_3.tsp</t>
-  </si>
-  <si>
-    <t>[7, 9, 10, 11, 16, 17, 31, ...</t>
-  </si>
-  <si>
-    <t>100_kroA_6.tsp</t>
-  </si>
-  <si>
-    <t>[4, 9, 25, 40, 44, 51, 57, ...</t>
-  </si>
-  <si>
-    <t>100_kroA_9.tsp</t>
-  </si>
-  <si>
-    <t>[8, 19, 23, 29, 58, 74, 80,...</t>
-  </si>
-  <si>
-    <t>202_gr_3.tsp</t>
-  </si>
-  <si>
-    <t>[2, 4, 7, 10, 13, 17, 26, 3...</t>
-  </si>
-  <si>
-    <t>202_gr_6.tsp</t>
-  </si>
-  <si>
-    <t>[2, 3, 5, 7, 11, 16, 19, 27...</t>
-  </si>
-  <si>
-    <t>202_gr_9.tsp</t>
-  </si>
-  <si>
-    <t>[22, 57, 77, 81, 100, 113, ...</t>
-  </si>
-  <si>
-    <t>318_lin_3.tsp</t>
-  </si>
-  <si>
-    <t>[8, 34, 78, 84, 85, 86, 89,...</t>
-  </si>
-  <si>
-    <t>400_rd_3.tsp</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 10...</t>
+    <t>145.4445609954842</t>
+  </si>
+  <si>
+    <t>[10, 12, 13, 16][5, 6, 14, 15][1, 2, 7, 17][19, 20, 21][9, 11][3, 4, 8, 18, 22]</t>
+  </si>
+  <si>
+    <t>22_ulysses_9.tsp</t>
+  </si>
+  <si>
+    <t>94.6846493760953</t>
+  </si>
+  <si>
+    <t>[17, 21][1, 9, 20][3, 15][5, 7, 13][6, 12, 14][4, 8, 18][11][10, 19][2, 16, 22]</t>
+  </si>
+  <si>
+    <t>26_eil_3.tsp</t>
+  </si>
+  <si>
+    <t>2743.859786570546</t>
+  </si>
+  <si>
+    <t>[4, 13, 18, 19, 24, 25][1, 5, 6, 7, 8, 14, 17, 22, 23, 26][2, 3, 9, 10, 11, 12, 15, 16, 20, 21]</t>
+  </si>
+  <si>
+    <t>26_eil_6.tsp</t>
+  </si>
+  <si>
+    <t>1275.0339984875807</t>
+  </si>
+  <si>
+    <t>[2, 9, 11, 20, 22][1, 3, 16, 21, 26][8, 14, 18, 23][5, 6, 24, 25][7, 13, 19][4, 10, 12, 15, 17]</t>
+  </si>
+  <si>
+    <t>26_eil_9.tsp</t>
+  </si>
+  <si>
+    <t>1085.7153874585001</t>
+  </si>
+  <si>
+    <t>[4, 26][2, 21][1, 3, 10, 16, 22][6, 8, 24][9, 19][5, 18, 20][7, 11, 25][12, 14, 15, 17][13, 23]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,16 +539,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.07500004768371582</v>
-      </c>
-      <c r="C2">
-        <v>136.99527629589417</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>136.99527629589417</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
         <v>0.0</v>
@@ -541,36 +559,36 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.17400002479553223</v>
-      </c>
-      <c r="C3">
-        <v>55.11939124322688</v>
+        <v>0.461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>55.11939124322688</v>
+        <v>136.98304626489937</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>8.927337734168181e-5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.7460000514984131</v>
-      </c>
-      <c r="C4">
-        <v>33.29189782877749</v>
+        <v>0.19100022315979004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>33.29189782877749</v>
+        <v>55.11939124322688</v>
       </c>
       <c r="F4">
         <v>0.0</v>
@@ -578,19 +596,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.16300010681152344</v>
-      </c>
-      <c r="C5">
-        <v>93.38998725996821</v>
+        <v>1.3040001392364502</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>93.38998725996821</v>
+        <v>33.29189782877749</v>
       </c>
       <c r="F5">
         <v>0.0</v>
@@ -598,19 +616,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>0.502000093460083</v>
-      </c>
-      <c r="C6">
-        <v>42.74062354260174</v>
+        <v>0.5720000267028809</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>42.74062354260174</v>
+        <v>93.3899872599682</v>
       </c>
       <c r="F6">
         <v>0.0</v>
@@ -618,222 +636,162 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>30.06000018119812</v>
-      </c>
-      <c r="C7">
-        <v>20.762438566071065</v>
+        <v>0.940000057220459</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>42.74062354260174</v>
       </c>
       <c r="F7">
-        <v>0.9999999999951837</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>2.0980000495910645</v>
-      </c>
-      <c r="C8">
-        <v>358.6368286225183</v>
+        <v>30.098000049591064</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>358.63149810320766</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>1.4863279187207188e-5</v>
+        <v>0.9999999999951837</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>18.322999954223633</v>
-      </c>
-      <c r="C9">
-        <v>116.52876945505506</v>
+        <v>8.994999885559082</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>116.52876945505507</v>
+        <v>358.6116071877678</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>7.032583588074738e-5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>30.735999822616577</v>
-      </c>
-      <c r="C10">
-        <v>2.8717214422742687e6</v>
+        <v>30.057000160217285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>141271.35364853864</v>
+        <v>51.615014703772715</v>
       </c>
       <c r="F10">
-        <v>0.9508060386467504</v>
+        <v>0.6451224139936056</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>30.253999948501587</v>
-      </c>
-      <c r="C11">
-        <v>1.4033546920544147e6</v>
+        <v>30.128000020980835</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0.0</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
+        <v>0.9999999999989438</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>30.35199999809265</v>
-      </c>
-      <c r="C12">
-        <v>5.234109136813928e7</v>
+        <v>30.159000158309937</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>1221.3575832029364</v>
       </c>
       <c r="F12">
-        <v>1.0</v>
+        <v>0.5548760949153587</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>1167.9110000133514</v>
-      </c>
-      <c r="C13">
-        <v>105359.75152044799</v>
+        <v>30.157000064849854</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>275.8029912046625</v>
       </c>
       <c r="F13">
-        <v>0.999999999999999</v>
+        <v>0.7836896964850406</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>31.008999824523926</v>
-      </c>
-      <c r="C14">
-        <v>60897.17326486739</v>
+        <v>30.187999963760376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0.9999999999999983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>31.705000162124634</v>
-      </c>
-      <c r="C15">
-        <v>40469.09017000644</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>0.9999999999999974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>31.960999965667725</v>
-      </c>
-      <c r="C16">
-        <v>3.2748194722333185e7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>66.12100005149841</v>
-      </c>
-      <c r="C17">
-        <v>1.5108650984158175e7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
+        <v>0.9999999999999079</v>
       </c>
     </row>
   </sheetData>

--- a/30 s/dualisation_sol.xlsx
+++ b/30 s/dualisation_sol.xlsx
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.461</v>
+        <v>0.5290000438690186</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -579,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.19100022315979004</v>
+        <v>0.26200008392333984</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1.3040001392364502</v>
+        <v>1.312000036239624</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -619,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.5720000267028809</v>
+        <v>0.5769999027252197</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -639,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.940000057220459</v>
+        <v>0.7939999103546143</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -659,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>30.098000049591064</v>
+        <v>30.063000202178955</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>8.994999885559082</v>
+        <v>7.355000019073486</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -699,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>30.057000160217285</v>
+        <v>30.062000036239624</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -719,7 +719,7 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>30.128000020980835</v>
+        <v>30.158999919891357</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>30.159000158309937</v>
+        <v>30.068000078201294</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -759,7 +759,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>30.157000064849854</v>
+        <v>30.103000164031982</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -768,10 +768,10 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>275.8029912046625</v>
+        <v>250.72464559656783</v>
       </c>
       <c r="F13">
-        <v>0.7836896964850406</v>
+        <v>0.8033584626809539</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -779,7 +779,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>30.187999963760376</v>
+        <v>30.200000047683716</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
